--- a/T.I/Backlog de Requisitos - QuikGem.xlsx
+++ b/T.I/Backlog de Requisitos - QuikGem.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/joao_lcarvalho_sptech_school/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos aulas\Projeto-Individual\T.I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DF4040-4422-4F59-BF94-A0A711E258D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094AD2E-D4BD-4F16-A4FF-DA7079521F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F40A148-A149-450A-B78A-D0BC37C2F8E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="QuikGem" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -213,13 +213,43 @@
   </si>
   <si>
     <t>Validar as credencias da Página de Cadastro e Login.</t>
+  </si>
+  <si>
+    <t>SP2</t>
+  </si>
+  <si>
+    <t>SP4</t>
+  </si>
+  <si>
+    <t>SP1</t>
+  </si>
+  <si>
+    <t>SP5</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +317,24 @@
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +356,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,12 +423,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -397,24 +455,32 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,6 +503,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -497,16 +573,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -840,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F85F64-1FF1-476B-A3C2-FA12BE9E0B36}">
-  <dimension ref="D1:K20"/>
+  <dimension ref="D1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -856,22 +922,23 @@
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="11" t="s">
+    <row r="1" spans="4:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="4:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="4:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -897,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="4:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
@@ -920,10 +987,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="4:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
@@ -946,10 +1016,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="4:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
@@ -972,17 +1045,20 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1000,8 +1076,11 @@
       <c r="K7" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="4:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1024,10 +1103,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1050,10 +1132,13 @@
         <v>2</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1076,10 +1161,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1105,14 +1190,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="4:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1128,35 +1213,35 @@
         <v>2</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="4:11" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="4:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="10">
@@ -1166,17 +1251,17 @@
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="4:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1195,20 +1280,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="4:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="10">
@@ -1218,17 +1303,17 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1247,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1270,11 +1355,17 @@
         <v>2</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1282,36 +1373,38 @@
     <mergeCell ref="D13:K13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="G18 G2:G12">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"Desejável"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="G2:G12 G18">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"Essencial"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"Desejável"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Importante"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G18">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Desejável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Importante"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18 G2:G12">
+    <cfRule type="cellIs" dxfId="3" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Importante"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/T.I/Backlog de Requisitos - QuikGem.xlsx
+++ b/T.I/Backlog de Requisitos - QuikGem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos aulas\Projeto-Individual\T.I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094AD2E-D4BD-4F16-A4FF-DA7079521F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02A425-CD81-4847-A409-54D8E1D49564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F40A148-A149-450A-B78A-D0BC37C2F8E9}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>Criar uma página para o cadastro para permitir que usuários criem contas com nome, e-mail e senha.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Autenticar usuários com e-mail e senha.</t>
-  </si>
-  <si>
     <t>Tela de Login</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Menu de navegação</t>
   </si>
   <si>
-    <t xml:space="preserve"> Implementar um menu de navegação fixo (navbar) no topo do site, presente em todas as páginas, com links organizados que facilitem a movimentação entre as principais seções do QuikGem</t>
-  </si>
-  <si>
     <t>Criar uma área pessoal acessível somente após o login, onde o usuário poderá visualizar seu perfil , e acesso á uma área com gráficos e métricas.</t>
   </si>
   <si>
@@ -243,13 +237,19 @@
   </si>
   <si>
     <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Autenticar usuários com e-mail e senha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Implementar um menu de navegação fixo (navbar) no topo do site, presente na Home, com links organizados que facilitem a movimentação entre as principais seções do QuikGem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +332,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -423,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,6 +488,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,14 +918,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F85F64-1FF1-476B-A3C2-FA12BE9E0B36}">
   <dimension ref="D1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="42" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.109375" customWidth="1"/>
     <col min="6" max="6" width="162.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
@@ -971,7 +981,7 @@
       <c r="E4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -987,10 +997,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="4:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1000,7 +1010,7 @@
       <c r="E5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1016,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="4:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1027,10 +1037,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="9" t="s">
         <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>9</v>
@@ -1045,10 +1055,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="4:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1056,19 +1066,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>23</v>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="I7" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="10">
         <v>2</v>
@@ -1077,7 +1087,7 @@
         <v>17</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1085,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
@@ -1103,10 +1113,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="4:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1114,10 +1124,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1132,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="4:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1143,10 +1153,10 @@
         <v>19</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -1161,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="4:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1169,10 +1179,10 @@
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -1186,8 +1196,8 @@
       <c r="J11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>17</v>
+      <c r="K11" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="4:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1195,10 +1205,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -1213,12 +1223,12 @@
         <v>2</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="4:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1233,10 +1243,10 @@
         <v>24</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -1251,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="4:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1259,10 +1269,10 @@
         <v>25</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
@@ -1288,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
@@ -1303,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="4:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,10 +1321,10 @@
         <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
@@ -1337,10 +1347,10 @@
         <v>28</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
@@ -1355,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.3">

--- a/T.I/Backlog de Requisitos - QuikGem.xlsx
+++ b/T.I/Backlog de Requisitos - QuikGem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos aulas\Projeto-Individual\T.I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02A425-CD81-4847-A409-54D8E1D49564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40158DA-B1EB-4883-B820-0774C83F0B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F40A148-A149-450A-B78A-D0BC37C2F8E9}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,13 +332,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Nova"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -430,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,22 +467,18 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F85F64-1FF1-476B-A3C2-FA12BE9E0B36}">
-  <dimension ref="D1:O29"/>
+  <dimension ref="D1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="42" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,23 +921,24 @@
     <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:15" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="15" t="s">
+    <row r="1" spans="4:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="4:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="4:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,7 +964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="4:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
@@ -999,11 +989,11 @@
       <c r="K4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="4:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1028,11 +1018,11 @@
       <c r="K5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="M5" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="4:15" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1057,11 +1047,11 @@
       <c r="K6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="M6" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="4:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1086,11 +1076,11 @@
       <c r="K7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="M7" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1115,11 +1105,11 @@
       <c r="K8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="M8" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="4:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
@@ -1144,11 +1134,11 @@
       <c r="K9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="M9" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
@@ -1174,7 +1164,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
@@ -1226,19 +1216,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="4:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="16" t="s">
+    <row r="13" spans="4:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="4:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="4:13" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="7" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="7" t="s">
         <v>26</v>
       </c>
@@ -1316,14 +1306,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="4:13" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1342,7 +1332,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
@@ -1368,14 +1358,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="M29" s="20"/>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
